--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,95 +568,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nason Creek Lower 01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <v>42</v>
-      </c>
-      <c r="U3">
-        <v>0.9333333333333334</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>5</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Flow- Scour</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,103 +473,835 @@
           <t>HQ_Score_Protection</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>unacceptable_1_indiv_habitat_attributes</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>unacceptable_and_at_risk_1_3_indiv_habitat_attributes</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Entiat River Lake 03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>39</v>
+      </c>
+      <c r="U2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Entiat River Lake 05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>39</v>
+      </c>
+      <c r="U3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Entiat River Lake 06</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>36</v>
+      </c>
+      <c r="U4">
+        <v>0.8</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Entiat River Potato 05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>39</v>
+      </c>
+      <c r="U5">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>36</v>
+      </c>
+      <c r="U6">
+        <v>0.8</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Methow</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="T2">
+      <c r="T7">
         <v>42</v>
       </c>
-      <c r="U2">
+      <c r="U7">
         <v>0.9333333333333334</v>
       </c>
-      <c r="V2">
+      <c r="V7">
         <v>1</v>
       </c>
-      <c r="W2">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
+      <c r="W7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>38</v>
+      </c>
+      <c r="U8">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>40</v>
+      </c>
+      <c r="U9">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>36</v>
+      </c>
+      <c r="U10">
+        <v>0.8</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 06</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>36</v>
+      </c>
+      <c r="U11">
+        <v>0.8</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,17 +477,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Chewuch River Doe 04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -530,28 +530,28 @@
         <v>5</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U2">
-        <v>0.8666666666666667</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -560,17 +560,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -601,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -619,22 +619,22 @@
         <v>5</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U3">
-        <v>0.8666666666666667</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -643,7 +643,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Lake 06</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -696,19 +696,19 @@
         <v>3</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4">
         <v>4</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>36</v>
@@ -726,7 +726,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -770,13 +770,13 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -791,16 +791,16 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U5">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -809,17 +809,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -874,13 +874,13 @@
         <v>4</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U6">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V6">
         <v>3</v>
@@ -892,17 +892,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Entiat River Lake 06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -936,56 +936,56 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U7">
-        <v>0.9333333333333334</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1007,28 +1007,28 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -1040,16 +1040,16 @@
         <v>5</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U8">
-        <v>0.8444444444444444</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -1058,17 +1058,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1087,31 +1087,31 @@
         </is>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>5</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <v>5</v>
@@ -1123,16 +1123,16 @@
         <v>5</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U9">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1141,17 +1141,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1170,31 +1170,31 @@
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>5</v>
@@ -1206,16 +1206,16 @@
         <v>5</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U10">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -1224,83 +1224,1328 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Entiat River Potato 05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>35</v>
+      </c>
+      <c r="U11">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Entiat River-Preston Creek</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>33</v>
+      </c>
+      <c r="U12">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>36</v>
+      </c>
+      <c r="U13">
+        <v>0.8</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Little Wenatchee River Lower 03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Lower Little Wenatchee River</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>33</v>
+      </c>
+      <c r="U14">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 04</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>32</v>
+      </c>
+      <c r="U15">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Methow River Rattlesnake 01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Methow River-Rattlesnake Creek</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>32</v>
+      </c>
+      <c r="U16">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Methow River Rattlesnake 05</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Methow River-Rattlesnake Creek</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>35</v>
+      </c>
+      <c r="U17">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Methow River Rattlesnake 06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Methow River-Rattlesnake Creek</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>39</v>
+      </c>
+      <c r="U18">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Methow River Thompson 08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Methow River-Thompson Creek</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>32</v>
+      </c>
+      <c r="U19">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>36</v>
+      </c>
+      <c r="U20">
+        <v>0.8</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 02</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>36</v>
+      </c>
+      <c r="U21">
+        <v>0.8</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>34</v>
+      </c>
+      <c r="U22">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>33</v>
+      </c>
+      <c r="U23">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>35</v>
+      </c>
+      <c r="U24">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Twisp River Middle 06</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Methow</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>36</v>
-      </c>
-      <c r="U11">
-        <v>0.8</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>35</v>
+      </c>
+      <c r="U25">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>White River Lower 08</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lower White River</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>34</v>
+      </c>
+      <c r="U26">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
         <v>3</v>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2220,7 +2220,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2303,7 +2303,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2380,172 +2380,6 @@
         <v>5</v>
       </c>
       <c r="W24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 06</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>5</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>5</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>3</v>
-      </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25">
-        <v>35</v>
-      </c>
-      <c r="U25">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="V25">
-        <v>5</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>White River Lower 08</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Lower White River</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>5</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>5</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26">
-        <v>4</v>
-      </c>
-      <c r="S26">
-        <v>5</v>
-      </c>
-      <c r="T26">
-        <v>34</v>
-      </c>
-      <c r="U26">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="V26">
-        <v>5</v>
-      </c>
-      <c r="W26">
         <v>3</v>
       </c>
     </row>
